--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1226639.221632921</v>
+        <v>1278191.38138466</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12157779.51246666</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>1786423.703430227</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7070948.401893393</v>
+        <v>7302268.883497217</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +667,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>330.7433076110107</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>321.0751795988617</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>57.02643368806877</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.9095796790286</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +907,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>49.73801480764758</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>229.6613922053348</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1060,13 +1062,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>58.33552926585362</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>11.12043047005092</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1136,7 +1138,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>151.2483906075946</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1145,13 +1147,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>222.3542651478507</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1300,10 +1302,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>82.05371450212358</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>123.9086344760398</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1379,10 +1381,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>168.5326704209583</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>186.5146679205617</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526348037</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1619,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>182.2760824806362</v>
+        <v>129.0110892700986</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -2002,13 +2004,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>157.4465183606609</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2020,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2059,16 +2061,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>208.960010811153</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>260.4446813871633</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>54.7666379550617</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>98.15366458399268</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>146.3034971231914</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>75.25534642052961</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>12.06219323947403</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2956,19 +2958,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>218.008057705788</v>
+        <v>211.7611246686784</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3190,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>134.6953597735377</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>109.0321535386228</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3436,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>152.8165123152974</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>181.2635869532363</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>215.5859136845943</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3749,10 +3751,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>153.3573077796844</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>186.5146679205615</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>253.6542084583247</v>
+        <v>265.3439815931928</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>66.04175717230915</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -3992,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>222.3542651478507</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4183,25 +4185,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>79.35347485062486</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1352.001345065968</v>
+        <v>2107.276378909293</v>
       </c>
       <c r="C2" t="n">
-        <v>925.1006150792682</v>
+        <v>1680.375648922593</v>
       </c>
       <c r="D2" t="n">
-        <v>501.8079942642685</v>
+        <v>1257.083028107594</v>
       </c>
       <c r="E2" t="n">
-        <v>479.8714584525301</v>
+        <v>831.1060882554513</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74727664193027</v>
+        <v>405.9819064448515</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K2" t="n">
-        <v>417.0520770886785</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L2" t="n">
-        <v>1090.853728201993</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M2" t="n">
-        <v>1374.82761136252</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="N2" t="n">
-        <v>2048.629262475834</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="O2" t="n">
-        <v>2048.629262475834</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="P2" t="n">
-        <v>2722.430913589148</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T2" t="n">
-        <v>2501.505342633781</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U2" t="n">
-        <v>2501.505342633781</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="V2" t="n">
-        <v>2501.505342633781</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="W2" t="n">
-        <v>2501.505342633781</v>
+        <v>2940.141608037781</v>
       </c>
       <c r="X2" t="n">
-        <v>2177.186979402608</v>
+        <v>2528.421609205529</v>
       </c>
       <c r="Y2" t="n">
-        <v>1771.849709357498</v>
+        <v>2527.124743200823</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K3" t="n">
-        <v>644.9335448401225</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L3" t="n">
-        <v>1318.735195953437</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="M3" t="n">
-        <v>1863.136248852293</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="N3" t="n">
-        <v>1863.136248852293</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="O3" t="n">
-        <v>1863.136248852293</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="P3" t="n">
-        <v>1863.136248852293</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>469.8752292487922</v>
+        <v>946.655800172342</v>
       </c>
       <c r="C4" t="n">
-        <v>469.8752292487922</v>
+        <v>774.6832370512579</v>
       </c>
       <c r="D4" t="n">
-        <v>469.8752292487922</v>
+        <v>611.3664641780287</v>
       </c>
       <c r="E4" t="n">
-        <v>469.8752292487922</v>
+        <v>445.1582583308822</v>
       </c>
       <c r="F4" t="n">
-        <v>298.0134550233526</v>
+        <v>273.2964841054426</v>
       </c>
       <c r="G4" t="n">
-        <v>298.0134550233526</v>
+        <v>215.694025834666</v>
       </c>
       <c r="H4" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S4" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T4" t="n">
-        <v>1774.348637117119</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U4" t="n">
-        <v>1494.164188617424</v>
+        <v>1972.126336256253</v>
       </c>
       <c r="V4" t="n">
-        <v>1212.452721225452</v>
+        <v>1690.414868864282</v>
       </c>
       <c r="W4" t="n">
-        <v>937.6003173979655</v>
+        <v>1415.562465036795</v>
       </c>
       <c r="X4" t="n">
-        <v>695.0364208437705</v>
+        <v>1172.9985684826</v>
       </c>
       <c r="Y4" t="n">
-        <v>469.8752292487922</v>
+        <v>946.655800172342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.157986293396</v>
+        <v>2212.428163474342</v>
       </c>
       <c r="C5" t="n">
-        <v>954.2572563066963</v>
+        <v>1785.527433487643</v>
       </c>
       <c r="D5" t="n">
-        <v>530.9646354916965</v>
+        <v>1362.234812672643</v>
       </c>
       <c r="E5" t="n">
-        <v>104.9876956395541</v>
+        <v>936.2578728205004</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74727664193027</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K5" t="n">
-        <v>728.2502693850971</v>
+        <v>80.53897563800069</v>
       </c>
       <c r="L5" t="n">
-        <v>728.2502693850971</v>
+        <v>970.2737227554036</v>
       </c>
       <c r="M5" t="n">
-        <v>728.2502693850971</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N5" t="n">
-        <v>1374.82761136252</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O5" t="n">
-        <v>2048.629262475834</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>2618.063619462288</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T5" t="n">
-        <v>2618.063619462288</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U5" t="n">
-        <v>2618.063619462288</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="V5" t="n">
-        <v>2618.063619462288</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="W5" t="n">
-        <v>2618.063619462288</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="X5" t="n">
-        <v>2206.343620630036</v>
+        <v>3037.613797810982</v>
       </c>
       <c r="Y5" t="n">
-        <v>1801.006350584926</v>
+        <v>2632.276527765873</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K6" t="n">
-        <v>54.44861827178296</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L6" t="n">
-        <v>515.5329466256644</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="M6" t="n">
-        <v>515.5329466256644</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="N6" t="n">
-        <v>515.5329466256644</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O6" t="n">
-        <v>1189.334597738979</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>448.662731302312</v>
+        <v>756.4898314602763</v>
       </c>
       <c r="C7" t="n">
-        <v>276.690168181228</v>
+        <v>584.5172683391922</v>
       </c>
       <c r="D7" t="n">
-        <v>113.3733953079987</v>
+        <v>421.2004954659629</v>
       </c>
       <c r="E7" t="n">
-        <v>54.44861827178296</v>
+        <v>254.9922896188165</v>
       </c>
       <c r="F7" t="n">
-        <v>54.44861827178296</v>
+        <v>83.13051539337692</v>
       </c>
       <c r="G7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T7" t="n">
-        <v>1944.483684597984</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U7" t="n">
-        <v>1664.299236098289</v>
+        <v>1972.126336256253</v>
       </c>
       <c r="V7" t="n">
-        <v>1382.587768706318</v>
+        <v>1690.414868864282</v>
       </c>
       <c r="W7" t="n">
-        <v>1107.735364878831</v>
+        <v>1415.562465036795</v>
       </c>
       <c r="X7" t="n">
-        <v>865.1714683246356</v>
+        <v>1172.9985684826</v>
       </c>
       <c r="Y7" t="n">
-        <v>638.8287000143777</v>
+        <v>946.655800172342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1889.56568446066</v>
+        <v>2032.689368889903</v>
       </c>
       <c r="C8" t="n">
-        <v>1462.66495447396</v>
+        <v>1605.788638903203</v>
       </c>
       <c r="D8" t="n">
-        <v>1309.888802345077</v>
+        <v>1182.496018088203</v>
       </c>
       <c r="E8" t="n">
-        <v>883.9118624929341</v>
+        <v>756.5190782360609</v>
       </c>
       <c r="F8" t="n">
-        <v>458.7876806823343</v>
+        <v>331.3948964254611</v>
       </c>
       <c r="G8" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K8" t="n">
-        <v>54.44861827178296</v>
+        <v>144.4381087155731</v>
       </c>
       <c r="L8" t="n">
-        <v>701.0259602492056</v>
+        <v>1034.172855832976</v>
       </c>
       <c r="M8" t="n">
-        <v>1374.82761136252</v>
+        <v>1923.907602950379</v>
       </c>
       <c r="N8" t="n">
-        <v>2048.629262475834</v>
+        <v>1923.907602950379</v>
       </c>
       <c r="O8" t="n">
-        <v>2722.430913589148</v>
+        <v>2769.052253101191</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T8" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U8" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="V8" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="W8" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="X8" t="n">
-        <v>2310.710914756895</v>
+        <v>2857.875003226543</v>
       </c>
       <c r="Y8" t="n">
-        <v>2309.41404875219</v>
+        <v>2452.537733181433</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>2353.323727591967</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>2235.817824109472</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>2131.977865624757</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>2027.275931897694</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>1933.630101580598</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>1839.576329798202</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>1786.200236560511</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>1786.200236560511</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>1786.200236560511</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>1786.200236560511</v>
       </c>
       <c r="L9" t="n">
-        <v>54.44861827178296</v>
+        <v>1786.200236560511</v>
       </c>
       <c r="M9" t="n">
-        <v>728.2502693850971</v>
+        <v>2675.934983677914</v>
       </c>
       <c r="N9" t="n">
-        <v>1402.051920498411</v>
+        <v>2705.40658912955</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>3513.563619702276</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>3371.683683999954</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>3186.915487919591</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>2981.942349058857</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>2785.420971892074</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>2621.943625658737</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>2482.25073701203</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>638.8287000143777</v>
+        <v>911.5140431154877</v>
       </c>
       <c r="C10" t="n">
-        <v>466.8561368932936</v>
+        <v>739.5414799944036</v>
       </c>
       <c r="D10" t="n">
-        <v>303.5393640200643</v>
+        <v>576.2247071211743</v>
       </c>
       <c r="E10" t="n">
-        <v>137.3311581729179</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="F10" t="n">
-        <v>54.44861827178296</v>
+        <v>238.1547270485883</v>
       </c>
       <c r="G10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T10" t="n">
-        <v>1944.483684597984</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U10" t="n">
-        <v>1664.299236098289</v>
+        <v>2127.150547911464</v>
       </c>
       <c r="V10" t="n">
-        <v>1382.587768706318</v>
+        <v>1845.439080519493</v>
       </c>
       <c r="W10" t="n">
-        <v>1107.735364878831</v>
+        <v>1570.586676692006</v>
       </c>
       <c r="X10" t="n">
-        <v>865.1714683246356</v>
+        <v>1328.022780137811</v>
       </c>
       <c r="Y10" t="n">
-        <v>638.8287000143777</v>
+        <v>1101.680011827553</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1500.853929552856</v>
+        <v>1773.192229807262</v>
       </c>
       <c r="C11" t="n">
-        <v>1073.953199566156</v>
+        <v>1346.291499820562</v>
       </c>
       <c r="D11" t="n">
-        <v>650.660578751156</v>
+        <v>922.9988790055627</v>
       </c>
       <c r="E11" t="n">
-        <v>224.6836388990135</v>
+        <v>497.0219391534202</v>
       </c>
       <c r="F11" t="n">
-        <v>224.6836388990135</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K11" t="n">
-        <v>583.4696253673028</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L11" t="n">
-        <v>1257.271276480617</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M11" t="n">
-        <v>1931.072927593931</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="N11" t="n">
-        <v>1931.072927593931</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="O11" t="n">
-        <v>2604.874578707245</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="P11" t="n">
-        <v>2604.874578707245</v>
+        <v>3275.154838711053</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3406.489212675808</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>3406.489212675808</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>3406.489212675808</v>
       </c>
       <c r="W11" t="n">
-        <v>2326.039563889495</v>
+        <v>3010.097862976154</v>
       </c>
       <c r="X11" t="n">
-        <v>2326.039563889495</v>
+        <v>2598.377864143902</v>
       </c>
       <c r="Y11" t="n">
-        <v>1920.702293844386</v>
+        <v>2193.040594098792</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M12" t="n">
-        <v>728.2502693850971</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N12" t="n">
-        <v>1402.051920498411</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1137.62974079602</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="C13" t="n">
-        <v>965.6571776749358</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="D13" t="n">
-        <v>802.3404048017065</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="E13" t="n">
-        <v>636.1321989545601</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2234.861645684911</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S13" t="n">
-        <v>2234.861645684911</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T13" t="n">
-        <v>2234.861645684911</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U13" t="n">
-        <v>2234.861645684911</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.554778200025</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W13" t="n">
-        <v>1796.702374372538</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.138477818344</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.795709508086</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1755.743090736225</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C14" t="n">
-        <v>1328.842360749525</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D14" t="n">
-        <v>905.5497399345252</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E14" t="n">
-        <v>479.5728000823827</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F14" t="n">
-        <v>54.44861827178296</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K14" t="n">
-        <v>728.2502693850971</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L14" t="n">
-        <v>1402.051920498411</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="M14" t="n">
-        <v>2075.853571611725</v>
+        <v>1742.452134990904</v>
       </c>
       <c r="N14" t="n">
-        <v>2722.430913589148</v>
+        <v>2632.186882108307</v>
       </c>
       <c r="O14" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>2618.063619462288</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T14" t="n">
-        <v>2433.946364431343</v>
+        <v>3360.206341428204</v>
       </c>
       <c r="U14" t="n">
-        <v>2175.591455027755</v>
+        <v>3360.206341428204</v>
       </c>
       <c r="V14" t="n">
-        <v>2175.591455027755</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="W14" t="n">
-        <v>2175.591455027755</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="X14" t="n">
-        <v>2175.591455027755</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y14" t="n">
-        <v>2175.591455027755</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L15" t="n">
-        <v>54.44861827178296</v>
+        <v>101.1158936885245</v>
       </c>
       <c r="M15" t="n">
-        <v>643.169810791496</v>
+        <v>990.8506408059274</v>
       </c>
       <c r="N15" t="n">
-        <v>643.169810791496</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O15" t="n">
-        <v>643.169810791496</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P15" t="n">
-        <v>1316.97146190481</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q15" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1137.62974079602</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C16" t="n">
-        <v>965.6571776749358</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V16" t="n">
-        <v>2071.554778200025</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W16" t="n">
-        <v>1796.702374372538</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.138477818344</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.795709508086</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="17">
@@ -5513,13 +5515,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
         <v>2011.818868109901</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>584.2177258288816</v>
+        <v>1172.548160041972</v>
       </c>
       <c r="C19" t="n">
-        <v>584.2177258288816</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>584.2177258288816</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="X19" t="n">
-        <v>774.3836945409473</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="Y19" t="n">
-        <v>774.3836945409473</v>
+        <v>1362.714128754038</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5759,43 +5761,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5835,10 +5837,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.715267670341</v>
+        <v>3918.135197142812</v>
       </c>
       <c r="C22" t="n">
-        <v>913.7427045492574</v>
+        <v>3746.162634021728</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>3416.637655301352</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T22" t="n">
-        <v>2112.580693338092</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="U22" t="n">
-        <v>1832.396244838396</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="V22" t="n">
-        <v>1832.396244838396</v>
+        <v>4852.060234546818</v>
       </c>
       <c r="W22" t="n">
-        <v>1557.543841010909</v>
+        <v>4577.207830719331</v>
       </c>
       <c r="X22" t="n">
-        <v>1502.224004692665</v>
+        <v>4334.643934165136</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.881236382407</v>
+        <v>4108.301165854878</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
         <v>5115.135670291427</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C25" t="n">
-        <v>201.4478291472353</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>4824.7577092045</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>4824.7577092045</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>4824.7577092045</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="26">
@@ -6233,19 +6235,19 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3448.404218294985</v>
+        <v>3272.952175705151</v>
       </c>
       <c r="C28" t="n">
-        <v>3276.431655173901</v>
+        <v>3100.979612584067</v>
       </c>
       <c r="D28" t="n">
-        <v>3113.114882300672</v>
+        <v>3100.979612584067</v>
       </c>
       <c r="E28" t="n">
-        <v>2946.906676453525</v>
+        <v>3100.979612584067</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878299</v>
+        <v>3100.979612584067</v>
       </c>
       <c r="G28" t="n">
         <v>2934.722642878299</v>
@@ -6406,28 +6408,28 @@
         <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T28" t="n">
-        <v>4701.661275036462</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U28" t="n">
-        <v>4421.476826536767</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V28" t="n">
-        <v>4139.765359144795</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W28" t="n">
-        <v>3864.912955317308</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X28" t="n">
-        <v>3864.912955317308</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y28" t="n">
-        <v>3638.57018700705</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="29">
@@ -6476,7 +6478,7 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>581.3883178919874</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>409.4157547709034</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6652,19 +6654,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1822.202732251165</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1822.202732251165</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1822.202732251165</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>771.554286604053</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>771.554286604053</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>4220.213029898572</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6734,16 +6736,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6786,10 +6788,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>739.8561742104578</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>567.8836110893737</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>404.5668382161444</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>238.358632368998</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6883,25 +6885,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1673.781211614463</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1398.928807786976</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>1156.364911232781</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>930.0221429225235</v>
       </c>
     </row>
     <row r="35">
@@ -6944,7 +6946,7 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
         <v>3561.711740982687</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>3896.932966279258</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>4025.820723818557</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>4025.820723818557</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>775.6620294727279</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C37" t="n">
-        <v>603.6894663516439</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D37" t="n">
-        <v>440.3726934784146</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T37" t="n">
-        <v>2081.317014056335</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U37" t="n">
-        <v>1801.132565556639</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="V37" t="n">
-        <v>1519.421098164668</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="W37" t="n">
-        <v>1244.568694337181</v>
+        <v>4596.94391868984</v>
       </c>
       <c r="X37" t="n">
-        <v>1002.004797782986</v>
+        <v>4354.380022135645</v>
       </c>
       <c r="Y37" t="n">
-        <v>775.6620294727279</v>
+        <v>4128.037253825387</v>
       </c>
     </row>
     <row r="38">
@@ -7175,22 +7177,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
         <v>4997.579335409525</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>4025.820723818557</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>603.8002552472883</v>
+        <v>913.8534934449018</v>
       </c>
       <c r="C40" t="n">
-        <v>431.8276921262043</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D40" t="n">
-        <v>268.510919252975</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2099.621208542961</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U40" t="n">
-        <v>1819.436760043265</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V40" t="n">
-        <v>1537.725292651294</v>
+        <v>1847.778530848907</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.872888823807</v>
+        <v>1572.92612702142</v>
       </c>
       <c r="X40" t="n">
-        <v>1020.308992269612</v>
+        <v>1330.362230467225</v>
       </c>
       <c r="Y40" t="n">
-        <v>793.966223959354</v>
+        <v>1104.019462156967</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1485.525280420256</v>
+        <v>1961.590884272476</v>
       </c>
       <c r="C41" t="n">
-        <v>1058.624550433556</v>
+        <v>1534.690154285776</v>
       </c>
       <c r="D41" t="n">
-        <v>635.3319296185562</v>
+        <v>1111.397533470776</v>
       </c>
       <c r="E41" t="n">
-        <v>209.3549897664137</v>
+        <v>685.4205936186339</v>
       </c>
       <c r="F41" t="n">
-        <v>54.44861827178296</v>
+        <v>260.2964118080341</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K41" t="n">
-        <v>583.4696253673028</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L41" t="n">
-        <v>1257.271276480617</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="M41" t="n">
-        <v>1257.271276480617</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N41" t="n">
-        <v>1931.072927593931</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O41" t="n">
-        <v>2604.874578707245</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P41" t="n">
-        <v>2604.874578707245</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W41" t="n">
-        <v>2722.430913589148</v>
+        <v>3198.496517441368</v>
       </c>
       <c r="X41" t="n">
-        <v>2310.710914756895</v>
+        <v>2786.776518609116</v>
       </c>
       <c r="Y41" t="n">
-        <v>1905.373644711786</v>
+        <v>2381.439248564006</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J42" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K42" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L42" t="n">
-        <v>515.5329466256644</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M42" t="n">
-        <v>1189.334597738979</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N42" t="n">
-        <v>1189.334597738979</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O42" t="n">
-        <v>1189.334597738979</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1037.861172536296</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C43" t="n">
-        <v>865.8886094152118</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D43" t="n">
-        <v>702.5718365419825</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E43" t="n">
-        <v>536.363630694836</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F43" t="n">
-        <v>364.5018564693964</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G43" t="n">
-        <v>198.2448867636286</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44861827178296</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.861645684911</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="U43" t="n">
-        <v>2234.861645684911</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="V43" t="n">
-        <v>1953.15017829294</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="W43" t="n">
-        <v>1696.933806112814</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X43" t="n">
-        <v>1454.369909558619</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y43" t="n">
-        <v>1228.027141248361</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>906.4735300690827</v>
+        <v>2032.689368889903</v>
       </c>
       <c r="C44" t="n">
-        <v>479.5728000823827</v>
+        <v>1605.788638903203</v>
       </c>
       <c r="D44" t="n">
-        <v>479.5728000823827</v>
+        <v>1182.496018088203</v>
       </c>
       <c r="E44" t="n">
-        <v>479.5728000823827</v>
+        <v>756.5190782360609</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>331.3948964254611</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>331.3948964254611</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K44" t="n">
-        <v>1090.853728201993</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L44" t="n">
-        <v>1474.987448089748</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="M44" t="n">
-        <v>2148.789099203062</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="N44" t="n">
-        <v>2148.789099203062</v>
+        <v>2741.101998695029</v>
       </c>
       <c r="O44" t="n">
-        <v>2148.789099203062</v>
+        <v>3586.246648845841</v>
       </c>
       <c r="P44" t="n">
-        <v>2148.789099203062</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>2618.063619462288</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T44" t="n">
-        <v>2397.138048506922</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U44" t="n">
-        <v>2138.783139103334</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="V44" t="n">
-        <v>1781.293724229584</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="W44" t="n">
-        <v>1384.902374529931</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="X44" t="n">
-        <v>973.1823756976778</v>
+        <v>2857.875003226543</v>
       </c>
       <c r="Y44" t="n">
-        <v>973.1823756976778</v>
+        <v>2452.537733181433</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J45" t="n">
-        <v>333.5927505132859</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K45" t="n">
-        <v>333.5927505132859</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L45" t="n">
-        <v>333.5927505132859</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M45" t="n">
-        <v>333.5927505132859</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N45" t="n">
-        <v>333.5927505132859</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O45" t="n">
-        <v>643.169810791496</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P45" t="n">
-        <v>1316.97146190481</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q45" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1137.62974079602</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C46" t="n">
-        <v>965.6571776749358</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S46" t="n">
-        <v>2017.687984891219</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="T46" t="n">
-        <v>1774.348637117119</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="U46" t="n">
-        <v>1694.193612015478</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.482144623507</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W46" t="n">
-        <v>1137.62974079602</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X46" t="n">
-        <v>1137.62974079602</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y46" t="n">
-        <v>1137.62974079602</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M2" t="n">
-        <v>324.2735691221864</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>615.0948261072494</v>
       </c>
       <c r="P2" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8061,10 +8063,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L3" t="n">
-        <v>703.1228151115166</v>
+        <v>784.1890535317962</v>
       </c>
       <c r="M3" t="n">
-        <v>572.996833945516</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8076,7 +8078,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8216,22 +8218,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>44.49310412327424</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N5" t="n">
-        <v>690.3880490742669</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8295,10 +8297,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L6" t="n">
-        <v>488.256832526231</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8307,10 +8309,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>702.3785696021157</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>109.037682989509</v>
       </c>
       <c r="L8" t="n">
-        <v>691.4204686724437</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8538,13 +8540,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>51.11232664953732</v>
       </c>
       <c r="O9" t="n">
-        <v>488.9136355342238</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>203.8631344095814</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>240.3435569763818</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8775,13 +8777,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>51.11232664953685</v>
       </c>
       <c r="O12" t="n">
-        <v>488.9136355342238</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8927,19 +8929,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>826.1379604051695</v>
       </c>
       <c r="N14" t="n">
-        <v>690.388049074267</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -8948,7 +8950,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,25 +9011,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>52.02835575029422</v>
       </c>
       <c r="M15" t="n">
-        <v>617.7646517443615</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>877.2336749314295</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9407,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,13 +9485,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1004.802661823039</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9650,13 +9652,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>611.6066190166155</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9881,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>765.1769988726438</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>262.439123722643</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,10 +10126,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>362.1014486857561</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10592,10 +10594,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>883.9207714806259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10665,13 +10667,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>152.7047407943295</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
@@ -10823,7 +10825,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10835,13 +10837,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>866.431015736377</v>
       </c>
       <c r="P38" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10908,10 +10910,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685286</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>570.1292544266475</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>718.9197708299099</v>
+        <v>844.3447626445209</v>
       </c>
       <c r="M41" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11142,19 +11144,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>480.7349709485423</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P42" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>426.325900905103</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>46.3038651386963</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,22 +11384,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O45" t="n">
-        <v>335.8759910133436</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P45" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23267,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>231.7630013654876</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23309,7 +23311,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>32.20164732525143</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>165.7641609568371</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23546,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>36.44023276517697</v>
+        <v>89.7052259757146</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23561,7 +23563,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>12.80631912921226</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>31.17824677749988</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24175,22 +24177,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>18.44967133088807</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>185.3716196335912</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>63.52994056050431</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>125.8003826660207</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>113.0089626044154</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>158.0809632437112</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>22.13019988286487</v>
+        <v>28.37713291997449</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>35.44779670964743</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>79.2321554863222</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>88.08944198106164</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>59.64236734312274</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>63.30843903345712</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25637,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>267.5156322128093</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>213.7810038658843</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -25688,7 +25690,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -25843,10 +25845,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>18.44967133088741</v>
+        <v>6.759898196019265</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>349.6081234763056</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>72.53542959285483</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>198.0291291640739</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>443264.9801337888</v>
+        <v>522434.1722132975</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>443264.9801337887</v>
+        <v>522434.1722132975</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>660385.7236865005</v>
+        <v>660385.7236865007</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>660385.7236865007</v>
+        <v>660385.7236865006</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>660385.7236865007</v>
+        <v>660385.7236865006</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>660385.7236865006</v>
+        <v>660385.7236865007</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>443264.9801337888</v>
+        <v>522434.1722132975</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>443264.9801337888</v>
+        <v>522434.1722132975</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26316,19 @@
         <v>334904.5341064188</v>
       </c>
       <c r="C2" t="n">
+        <v>334904.5341064188</v>
+      </c>
+      <c r="D2" t="n">
         <v>334904.5341064189</v>
       </c>
-      <c r="D2" t="n">
-        <v>334904.5341064187</v>
-      </c>
       <c r="E2" t="n">
-        <v>216916.9051718539</v>
+        <v>255659.2757639538</v>
       </c>
       <c r="F2" t="n">
-        <v>216916.905171854</v>
+        <v>255659.275763954</v>
       </c>
       <c r="G2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040324</v>
       </c>
       <c r="H2" t="n">
         <v>323167.4818040322</v>
@@ -26335,25 +26337,25 @@
         <v>323167.4818040321</v>
       </c>
       <c r="J2" t="n">
-        <v>323167.4818040321</v>
+        <v>323167.4818040323</v>
       </c>
       <c r="K2" t="n">
         <v>323167.4818040322</v>
       </c>
       <c r="L2" t="n">
-        <v>323167.4818040322</v>
+        <v>323167.4818040321</v>
       </c>
       <c r="M2" t="n">
-        <v>323167.4818040322</v>
+        <v>323167.481804032</v>
       </c>
       <c r="N2" t="n">
-        <v>323167.4818040322</v>
+        <v>323167.4818040323</v>
       </c>
       <c r="O2" t="n">
-        <v>216916.9051718539</v>
+        <v>255659.275763954</v>
       </c>
       <c r="P2" t="n">
-        <v>216916.905171854</v>
+        <v>255659.275763954</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117636.3073549515</v>
+        <v>79282.26202110136</v>
       </c>
       <c r="C4" t="n">
-        <v>117636.3073549515</v>
+        <v>79282.2620211014</v>
       </c>
       <c r="D4" t="n">
-        <v>117636.3073549515</v>
+        <v>79282.26202110139</v>
       </c>
       <c r="E4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340386</v>
       </c>
       <c r="F4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="H4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433673</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="O4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340386</v>
       </c>
       <c r="P4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340385</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-85827.62689877166</v>
+        <v>-133830.0251702011</v>
       </c>
       <c r="C6" t="n">
-        <v>142259.6768649124</v>
+        <v>167352.3765047739</v>
       </c>
       <c r="D6" t="n">
-        <v>142259.6768649122</v>
+        <v>167352.376504774</v>
       </c>
       <c r="E6" t="n">
-        <v>175018.6982263568</v>
+        <v>200396.6040001763</v>
       </c>
       <c r="F6" t="n">
-        <v>175018.6982263568</v>
+        <v>200396.6040001764</v>
       </c>
       <c r="G6" t="n">
-        <v>80666.23854547324</v>
+        <v>140448.0795740396</v>
       </c>
       <c r="H6" t="n">
         <v>244617.3593556592</v>
@@ -26543,25 +26545,25 @@
         <v>244617.359355659</v>
       </c>
       <c r="J6" t="n">
-        <v>66540.43086687928</v>
+        <v>9472.149078097907</v>
       </c>
       <c r="K6" t="n">
         <v>244617.3593556591</v>
       </c>
       <c r="L6" t="n">
-        <v>244617.3593556592</v>
+        <v>244617.359355659</v>
       </c>
       <c r="M6" t="n">
-        <v>244617.3593556592</v>
+        <v>244617.3593556589</v>
       </c>
       <c r="N6" t="n">
         <v>244617.3593556592</v>
       </c>
       <c r="O6" t="n">
-        <v>175018.6982263568</v>
+        <v>200396.6040001764</v>
       </c>
       <c r="P6" t="n">
-        <v>175018.6982263568</v>
+        <v>200396.6040001764</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>69.55236417543517</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27430,22 +27432,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>86.52761924506854</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>107.5679663206414</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.169760948126793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>371.1349251848462</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27679,7 +27681,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>177.9414066385954</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>106.2105945228214</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>153.4739695386593</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>267.8113039992551</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>177.9414066385951</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>88.0894419810616</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>153.473969538659</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M2" t="n">
-        <v>286.8423062227546</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>577.7038667512254</v>
       </c>
       <c r="P2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,10 +34783,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L3" t="n">
-        <v>680.607728397287</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="M3" t="n">
-        <v>549.900053433188</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>8.728503328464901</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N5" t="n">
-        <v>653.1084262398208</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L6" t="n">
-        <v>465.7417458120015</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>680.607728397287</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>73.27308219469965</v>
       </c>
       <c r="L8" t="n">
-        <v>653.1084262398208</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35258,13 +35260,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>29.76929843599565</v>
       </c>
       <c r="O9" t="n">
-        <v>465.7417458120016</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>168.0985336147721</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>204.2188823717838</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>29.76929843599519</v>
       </c>
       <c r="O12" t="n">
-        <v>465.7417458120016</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>788.7066975057377</v>
       </c>
       <c r="N14" t="n">
-        <v>653.1084262398209</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.51326903606467</v>
       </c>
       <c r="M15" t="n">
-        <v>594.6678712320335</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>839.8024120319977</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -36127,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>981.7058813107108</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36370,13 +36372,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36601,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>727.745735973212</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>225.0481643666189</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36844,10 +36846,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>324.5260868755248</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37312,10 +37314,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>846.4895085811942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>130.1896540801</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37555,13 +37557,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>829.040056380353</v>
       </c>
       <c r="P38" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562006</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>534.3646536318382</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>680.607728397287</v>
+        <v>806.032720211898</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>458.2198842343128</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>388.01385847248</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>8.728503328465001</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O45" t="n">
-        <v>312.7041012911214</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1278191.38138466</v>
+        <v>1277216.178297113</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12157779.51246666</v>
+        <v>12157779.51246667</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1786423.703430227</v>
+        <v>1786423.703430226</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7302268.883497217</v>
+        <v>7302268.883497218</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>243.4383614585585</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -670,16 +670,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>330.7433076110107</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429434</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>57.02643368806877</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -904,19 +904,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>150.6980246771329</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>229.6613922053348</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1068,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>11.12043047005092</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>396.4768223416449</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>222.3542651478507</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1308,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>211.2730214979432</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>151.966765376598</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>186.5146679205617</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348037</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1590,10 +1590,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>161.0147812536081</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1618,7 +1618,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>129.0110892700986</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>172.5440335826459</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1773,19 +1773,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>129.0983270790274</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>157.4465183606609</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,13 +2061,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>260.4446813871633</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>146.3034971231914</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.25534642052961</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2955,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>211.7611246686784</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>134.6953597735377</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>109.0321535386228</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>215.5859136845943</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3748,19 +3748,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>337.884424773205</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>186.5146679205615</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>265.3439815931928</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3991,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>222.3542651478507</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>75.32281115118167</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4185,7 +4185,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>115.1055716303386</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2107.276378909293</v>
+        <v>1925.252742779828</v>
       </c>
       <c r="C2" t="n">
-        <v>1680.375648922593</v>
+        <v>1679.355407973204</v>
       </c>
       <c r="D2" t="n">
-        <v>1257.083028107594</v>
+        <v>1256.062787158204</v>
       </c>
       <c r="E2" t="n">
-        <v>831.1060882554513</v>
+        <v>830.0858473060615</v>
       </c>
       <c r="F2" t="n">
-        <v>405.9819064448515</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G2" t="n">
-        <v>71.89775734282044</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H2" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I2" t="n">
         <v>71.89775734282044</v>
@@ -4339,16 +4339,16 @@
         <v>1677.140812435722</v>
       </c>
       <c r="M2" t="n">
-        <v>1677.140812435722</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N2" t="n">
-        <v>2566.875559553125</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O2" t="n">
-        <v>3138.802387636838</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P2" t="n">
-        <v>3138.802387636838</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q2" t="n">
         <v>3594.887867141022</v>
@@ -4360,22 +4360,22 @@
         <v>3594.887867141022</v>
       </c>
       <c r="T2" t="n">
-        <v>3594.887867141022</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U2" t="n">
-        <v>3336.532957737434</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V2" t="n">
-        <v>3336.532957737434</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="W2" t="n">
-        <v>2940.141608037781</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="X2" t="n">
-        <v>2528.421609205529</v>
+        <v>2750.438377116468</v>
       </c>
       <c r="Y2" t="n">
-        <v>2527.124743200823</v>
+        <v>2345.101107071358</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J3" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K3" t="n">
-        <v>662.38268391116</v>
+        <v>669.8293268730719</v>
       </c>
       <c r="L3" t="n">
-        <v>1416.439911060551</v>
+        <v>990.8506408059274</v>
       </c>
       <c r="M3" t="n">
-        <v>1416.439911060551</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N3" t="n">
-        <v>1416.439911060551</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O3" t="n">
-        <v>1416.439911060551</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P3" t="n">
-        <v>1416.439911060551</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q3" t="n">
         <v>1880.58538792333</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>946.655800172342</v>
+        <v>1638.553905277558</v>
       </c>
       <c r="C4" t="n">
-        <v>774.6832370512579</v>
+        <v>1466.581342156474</v>
       </c>
       <c r="D4" t="n">
-        <v>611.3664641780287</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="E4" t="n">
-        <v>445.1582583308822</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="F4" t="n">
-        <v>273.2964841054426</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="G4" t="n">
-        <v>215.694025834666</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="H4" t="n">
-        <v>71.89775734282044</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="I4" t="n">
-        <v>71.89775734282044</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="J4" t="n">
-        <v>129.3890855669785</v>
+        <v>1471.966167952051</v>
       </c>
       <c r="K4" t="n">
-        <v>355.9166867728156</v>
+        <v>1698.493769157889</v>
       </c>
       <c r="L4" t="n">
-        <v>710.6060080672364</v>
+        <v>2053.183090452309</v>
       </c>
       <c r="M4" t="n">
-        <v>1101.791803037487</v>
+        <v>2444.36888542256</v>
       </c>
       <c r="N4" t="n">
-        <v>1479.283313913523</v>
+        <v>2821.860396298596</v>
       </c>
       <c r="O4" t="n">
-        <v>1834.711442593286</v>
+        <v>3177.288524978359</v>
       </c>
       <c r="P4" t="n">
-        <v>2125.310654515187</v>
+        <v>3467.88773690026</v>
       </c>
       <c r="Q4" t="n">
-        <v>2252.310784755949</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R4" t="n">
-        <v>2252.310784755949</v>
+        <v>3547.849253828195</v>
       </c>
       <c r="S4" t="n">
-        <v>2252.310784755949</v>
+        <v>3377.71420634733</v>
       </c>
       <c r="T4" t="n">
-        <v>2252.310784755949</v>
+        <v>3134.37485857323</v>
       </c>
       <c r="U4" t="n">
-        <v>1972.126336256253</v>
+        <v>2854.190410073534</v>
       </c>
       <c r="V4" t="n">
-        <v>1690.414868864282</v>
+        <v>2572.478942681563</v>
       </c>
       <c r="W4" t="n">
-        <v>1415.562465036795</v>
+        <v>2297.626538854076</v>
       </c>
       <c r="X4" t="n">
-        <v>1172.9985684826</v>
+        <v>2055.062642299881</v>
       </c>
       <c r="Y4" t="n">
-        <v>946.655800172342</v>
+        <v>1828.719873989623</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2212.428163474342</v>
+        <v>1499.734175271866</v>
       </c>
       <c r="C5" t="n">
-        <v>1785.527433487643</v>
+        <v>1072.833445285166</v>
       </c>
       <c r="D5" t="n">
-        <v>1362.234812672643</v>
+        <v>649.5408244701664</v>
       </c>
       <c r="E5" t="n">
-        <v>936.2578728205004</v>
+        <v>497.3205975235675</v>
       </c>
       <c r="F5" t="n">
-        <v>511.1336910099006</v>
+        <v>72.19641571296775</v>
       </c>
       <c r="G5" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H5" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I5" t="n">
         <v>71.89775734282044</v>
@@ -4570,25 +4570,25 @@
         <v>71.89775734282044</v>
       </c>
       <c r="K5" t="n">
-        <v>80.53897563800069</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L5" t="n">
-        <v>970.2737227554036</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M5" t="n">
-        <v>1860.008469872806</v>
+        <v>578.0873763287929</v>
       </c>
       <c r="N5" t="n">
-        <v>2749.743216990209</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O5" t="n">
-        <v>3594.887867141022</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P5" t="n">
-        <v>3594.887867141022</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q5" t="n">
-        <v>3594.887867141022</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R5" t="n">
         <v>3594.887867141022</v>
@@ -4597,22 +4597,22 @@
         <v>3490.520573014162</v>
       </c>
       <c r="T5" t="n">
-        <v>3269.595002058795</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U5" t="n">
-        <v>3269.595002058795</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V5" t="n">
-        <v>3269.595002058795</v>
+        <v>3133.031158140411</v>
       </c>
       <c r="W5" t="n">
-        <v>3269.595002058795</v>
+        <v>2736.639808440758</v>
       </c>
       <c r="X5" t="n">
-        <v>3037.613797810982</v>
+        <v>2324.919809608506</v>
       </c>
       <c r="Y5" t="n">
-        <v>2632.276527765873</v>
+        <v>1919.582539563396</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J6" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K6" t="n">
-        <v>662.38268391116</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L6" t="n">
-        <v>1164.387670884832</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="M6" t="n">
-        <v>1164.387670884832</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="N6" t="n">
-        <v>1164.387670884832</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="O6" t="n">
-        <v>1164.387670884832</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P6" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q6" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R6" t="n">
         <v>1880.58538792333</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>756.4898314602763</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C7" t="n">
-        <v>584.5172683391922</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D7" t="n">
-        <v>421.2004954659629</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E7" t="n">
-        <v>254.9922896188165</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F7" t="n">
-        <v>83.13051539337692</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G7" t="n">
-        <v>71.89775734282044</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H7" t="n">
-        <v>71.89775734282044</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I7" t="n">
         <v>71.89775734282044</v>
@@ -4758,19 +4758,19 @@
         <v>2252.310784755949</v>
       </c>
       <c r="U7" t="n">
-        <v>1972.126336256253</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V7" t="n">
-        <v>1690.414868864282</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W7" t="n">
-        <v>1415.562465036795</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X7" t="n">
-        <v>1172.9985684826</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y7" t="n">
-        <v>946.655800172342</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2032.689368889903</v>
+        <v>1298.175329879095</v>
       </c>
       <c r="C8" t="n">
-        <v>1605.788638903203</v>
+        <v>1275.3150039328</v>
       </c>
       <c r="D8" t="n">
-        <v>1182.496018088203</v>
+        <v>1256.062787158204</v>
       </c>
       <c r="E8" t="n">
-        <v>756.5190782360609</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F8" t="n">
-        <v>331.3948964254611</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G8" t="n">
-        <v>106.7946285993492</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H8" t="n">
         <v>106.7946285993492</v>
@@ -4807,22 +4807,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="K8" t="n">
-        <v>144.4381087155731</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L8" t="n">
-        <v>1034.172855832976</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M8" t="n">
-        <v>1923.907602950379</v>
+        <v>578.0873763287929</v>
       </c>
       <c r="N8" t="n">
-        <v>1923.907602950379</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O8" t="n">
-        <v>2769.052253101191</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P8" t="n">
-        <v>3477.331532259119</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q8" t="n">
         <v>3477.331532259119</v>
@@ -4840,16 +4840,16 @@
         <v>3269.595002058795</v>
       </c>
       <c r="V8" t="n">
-        <v>3269.595002058795</v>
+        <v>2912.105587185045</v>
       </c>
       <c r="W8" t="n">
-        <v>3269.595002058795</v>
+        <v>2515.714237485392</v>
       </c>
       <c r="X8" t="n">
-        <v>2857.875003226543</v>
+        <v>2103.994238653139</v>
       </c>
       <c r="Y8" t="n">
-        <v>2452.537733181433</v>
+        <v>1698.65696860803</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2353.323727591967</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>2235.817824109472</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>2131.977865624757</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
-        <v>2027.275931897694</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>1933.630101580598</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>1839.576329798202</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>1786.200236560511</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>1786.200236560511</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J9" t="n">
-        <v>1786.200236560511</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K9" t="n">
-        <v>1786.200236560511</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L9" t="n">
-        <v>1786.200236560511</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="M9" t="n">
-        <v>2675.934983677914</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="N9" t="n">
-        <v>2705.40658912955</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="O9" t="n">
-        <v>3594.887867141022</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P9" t="n">
-        <v>3594.887867141022</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q9" t="n">
-        <v>3594.887867141022</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R9" t="n">
-        <v>3594.887867141022</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>3513.563619702276</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>3371.683683999954</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>3186.915487919591</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>2981.942349058857</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>2785.420971892074</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>2621.943625658737</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>2482.25073701203</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>911.5140431154877</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C10" t="n">
-        <v>739.5414799944036</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D10" t="n">
-        <v>576.2247071211743</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E10" t="n">
-        <v>410.0165012740279</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F10" t="n">
-        <v>238.1547270485883</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G10" t="n">
-        <v>71.89775734282044</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H10" t="n">
-        <v>71.89775734282044</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I10" t="n">
         <v>71.89775734282044</v>
@@ -4989,25 +4989,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2252.310784755949</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T10" t="n">
-        <v>2252.310784755949</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U10" t="n">
-        <v>2127.150547911464</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.439080519493</v>
+        <v>1345.244848579123</v>
       </c>
       <c r="W10" t="n">
-        <v>1570.586676692006</v>
+        <v>1345.244848579123</v>
       </c>
       <c r="X10" t="n">
-        <v>1328.022780137811</v>
+        <v>1345.244848579123</v>
       </c>
       <c r="Y10" t="n">
-        <v>1101.680011827553</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1773.192229807262</v>
+        <v>1961.590884272476</v>
       </c>
       <c r="C11" t="n">
-        <v>1346.291499820562</v>
+        <v>1534.690154285776</v>
       </c>
       <c r="D11" t="n">
-        <v>922.9988790055627</v>
+        <v>1111.397533470776</v>
       </c>
       <c r="E11" t="n">
-        <v>497.0219391534202</v>
+        <v>685.4205936186339</v>
       </c>
       <c r="F11" t="n">
-        <v>71.89775734282044</v>
+        <v>260.2964118080341</v>
       </c>
       <c r="G11" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H11" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I11" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K11" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L11" t="n">
-        <v>1677.140812435722</v>
+        <v>1423.232026479605</v>
       </c>
       <c r="M11" t="n">
-        <v>2566.875559553125</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="N11" t="n">
-        <v>2566.875559553125</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="O11" t="n">
-        <v>2566.875559553125</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P11" t="n">
-        <v>3275.154838711053</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q11" t="n">
         <v>3477.331532259119</v>
@@ -5071,22 +5071,22 @@
         <v>3594.887867141022</v>
       </c>
       <c r="T11" t="n">
-        <v>3406.489212675808</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U11" t="n">
-        <v>3406.489212675808</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V11" t="n">
-        <v>3406.489212675808</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W11" t="n">
-        <v>3010.097862976154</v>
+        <v>3198.496517441368</v>
       </c>
       <c r="X11" t="n">
-        <v>2598.377864143902</v>
+        <v>2786.776518609116</v>
       </c>
       <c r="Y11" t="n">
-        <v>2193.040594098792</v>
+        <v>2381.439248564006</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J12" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K12" t="n">
-        <v>71.89775734282044</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L12" t="n">
-        <v>71.89775734282044</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="M12" t="n">
-        <v>961.6325044602233</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="N12" t="n">
-        <v>991.1041099118586</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="O12" t="n">
-        <v>1880.58538792333</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="P12" t="n">
-        <v>1880.58538792333</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q12" t="n">
         <v>1880.58538792333</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>486.1427916045499</v>
+        <v>650.7519300887034</v>
       </c>
       <c r="C13" t="n">
-        <v>486.1427916045499</v>
+        <v>478.7793669676194</v>
       </c>
       <c r="D13" t="n">
-        <v>486.1427916045499</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="E13" t="n">
-        <v>486.1427916045499</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="F13" t="n">
-        <v>481.7195638001579</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="G13" t="n">
         <v>315.4625940943901</v>
@@ -5238,13 +5238,13 @@
         <v>1229.90186029649</v>
       </c>
       <c r="W13" t="n">
-        <v>955.0494564690027</v>
+        <v>1067.260667111027</v>
       </c>
       <c r="X13" t="n">
-        <v>712.4855599148078</v>
+        <v>1067.260667111027</v>
       </c>
       <c r="Y13" t="n">
-        <v>486.1427916045499</v>
+        <v>840.9178988007691</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2177.531292217814</v>
+        <v>1787.303981663743</v>
       </c>
       <c r="C14" t="n">
-        <v>1750.630562231114</v>
+        <v>1360.403251677043</v>
       </c>
       <c r="D14" t="n">
-        <v>1327.337941416114</v>
+        <v>937.1106308620431</v>
       </c>
       <c r="E14" t="n">
-        <v>901.3610015639716</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="F14" t="n">
-        <v>476.2368197533718</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="G14" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H14" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I14" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K14" t="n">
-        <v>71.89775734282044</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L14" t="n">
-        <v>961.6325044602233</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="M14" t="n">
-        <v>1742.452134990904</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="N14" t="n">
-        <v>2632.186882108307</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O14" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P14" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q14" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
         <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T14" t="n">
-        <v>3360.206341428204</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U14" t="n">
-        <v>3360.206341428204</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V14" t="n">
-        <v>3002.716926554453</v>
+        <v>3420.600964532288</v>
       </c>
       <c r="W14" t="n">
-        <v>3002.716926554453</v>
+        <v>3024.209614832635</v>
       </c>
       <c r="X14" t="n">
-        <v>3002.716926554453</v>
+        <v>2612.489616000382</v>
       </c>
       <c r="Y14" t="n">
-        <v>2597.379656509343</v>
+        <v>2207.152345955273</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J15" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K15" t="n">
-        <v>71.89775734282044</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L15" t="n">
-        <v>101.1158936885245</v>
+        <v>1778.325624235569</v>
       </c>
       <c r="M15" t="n">
-        <v>990.8506408059274</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N15" t="n">
         <v>1880.58538792333</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.078879867057</v>
+        <v>709.4512181474495</v>
       </c>
       <c r="C16" t="n">
-        <v>983.1063167459732</v>
+        <v>537.4786550263655</v>
       </c>
       <c r="D16" t="n">
-        <v>819.7895438727439</v>
+        <v>374.1618821531362</v>
       </c>
       <c r="E16" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F16" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G16" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H16" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I16" t="n">
         <v>71.89775734282044</v>
@@ -5460,28 +5460,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.310784755949</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S16" t="n">
-        <v>2252.310784755949</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.310784755949</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="U16" t="n">
-        <v>2252.310784755949</v>
+        <v>1925.087722943426</v>
       </c>
       <c r="V16" t="n">
-        <v>2089.003917271063</v>
+        <v>1643.376255551455</v>
       </c>
       <c r="W16" t="n">
-        <v>1814.151513443576</v>
+        <v>1368.523851723968</v>
       </c>
       <c r="X16" t="n">
-        <v>1571.587616889381</v>
+        <v>1125.959955169773</v>
       </c>
       <c r="Y16" t="n">
-        <v>1345.244848579123</v>
+        <v>899.6171868595152</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1172.548160041972</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1589.056897064296</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1589.056897064296</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1589.056897064296</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1362.714128754038</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5770,34 +5770,34 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3918.135197142812</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>3746.162634021728</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3582.845861148498</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>3416.637655301352</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>5115.135670291427</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>5115.135670291427</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4852.060234546818</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>4577.207830719331</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>4334.643934165136</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>4108.301165854878</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5995,22 +5995,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4659.050190787244</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>5068.0970569786</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>4824.7577092045</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>4824.7577092045</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>4824.7577092045</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>4676.976398979054</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>4434.41250242486</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614084</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,19 +6302,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3272.952175705151</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C28" t="n">
-        <v>3100.979612584067</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D28" t="n">
-        <v>3100.979612584067</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E28" t="n">
-        <v>3100.979612584067</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3100.979612584067</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>2271.4829827684</v>
       </c>
       <c r="U28" t="n">
-        <v>4374.43821322394</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="V28" t="n">
-        <v>4092.726745831969</v>
+        <v>1709.587066876733</v>
       </c>
       <c r="W28" t="n">
-        <v>3817.874342004482</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X28" t="n">
-        <v>3575.310445450287</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y28" t="n">
-        <v>3348.967677140029</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,19 +6539,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>581.3883178919874</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>409.4157547709034</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>771.554286604053</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>771.554286604053</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>651.5495334576516</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6776,22 +6776,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>739.8561742104578</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>567.8836110893737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>404.5668382161444</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>238.358632368998</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2235.67712750613</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1955.492679006434</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1673.781211614463</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.928807786976</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1156.364911232781</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>930.0221429225235</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>4871.796322517327</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>4871.796322517327</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>4871.796322517327</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>4596.94391868984</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>4354.380022135645</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>4128.037253825387</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3012.464920930865</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>913.8534934449018</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>741.8809303238178</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>578.5641574505885</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2065.542080025265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1847.778530848907</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1572.92612702142</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1330.362230467225</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1104.019462156967</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1961.590884272476</v>
+        <v>2000.492819098379</v>
       </c>
       <c r="C41" t="n">
-        <v>1534.690154285776</v>
+        <v>1573.592089111679</v>
       </c>
       <c r="D41" t="n">
-        <v>1111.397533470776</v>
+        <v>1150.299468296679</v>
       </c>
       <c r="E41" t="n">
-        <v>685.4205936186339</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="F41" t="n">
-        <v>260.2964118080341</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G41" t="n">
-        <v>71.89775734282044</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H41" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I41" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K41" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>1585.378458328099</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M41" t="n">
-        <v>1585.378458328099</v>
+        <v>1923.907602950379</v>
       </c>
       <c r="N41" t="n">
-        <v>1585.378458328099</v>
+        <v>1923.907602950379</v>
       </c>
       <c r="O41" t="n">
-        <v>2430.523108478911</v>
+        <v>2769.052253101191</v>
       </c>
       <c r="P41" t="n">
-        <v>3138.802387636838</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q41" t="n">
-        <v>3594.887867141022</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R41" t="n">
         <v>3594.887867141022</v>
@@ -7447,16 +7447,16 @@
         <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>3594.887867141022</v>
+        <v>3237.398452267271</v>
       </c>
       <c r="W41" t="n">
-        <v>3198.496517441368</v>
+        <v>3237.398452267271</v>
       </c>
       <c r="X41" t="n">
-        <v>2786.776518609116</v>
+        <v>2825.678453435018</v>
       </c>
       <c r="Y41" t="n">
-        <v>2381.439248564006</v>
+        <v>2420.341183389909</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J42" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K42" t="n">
-        <v>71.89775734282044</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L42" t="n">
-        <v>71.89775734282044</v>
+        <v>1778.325624235569</v>
       </c>
       <c r="M42" t="n">
-        <v>961.6325044602233</v>
+        <v>1778.325624235569</v>
       </c>
       <c r="N42" t="n">
-        <v>1851.367251577626</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O42" t="n">
         <v>1880.58538792333</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1155.078879867057</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C43" t="n">
-        <v>983.1063167459732</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D43" t="n">
-        <v>819.7895438727439</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E43" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F43" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G43" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H43" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I43" t="n">
         <v>71.89775734282044</v>
@@ -7596,25 +7596,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>2082.175737275084</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T43" t="n">
-        <v>2082.175737275084</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U43" t="n">
-        <v>2082.175737275084</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V43" t="n">
-        <v>2082.175737275084</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W43" t="n">
-        <v>1814.151513443576</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X43" t="n">
-        <v>1571.587616889381</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y43" t="n">
-        <v>1345.244848579123</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2032.689368889903</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C44" t="n">
-        <v>1605.788638903203</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D44" t="n">
-        <v>1182.496018088203</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E44" t="n">
-        <v>756.5190782360609</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F44" t="n">
-        <v>331.3948964254611</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G44" t="n">
-        <v>331.3948964254611</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H44" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I44" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
-        <v>71.89775734282044</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>961.6325044602233</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M44" t="n">
-        <v>1851.367251577626</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="N44" t="n">
-        <v>2741.101998695029</v>
+        <v>2041.463937832282</v>
       </c>
       <c r="O44" t="n">
-        <v>3586.246648845841</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="P44" t="n">
         <v>3594.887867141022</v>
@@ -7678,22 +7678,22 @@
         <v>3490.520573014162</v>
       </c>
       <c r="T44" t="n">
-        <v>3269.595002058795</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U44" t="n">
-        <v>3269.595002058795</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V44" t="n">
-        <v>3269.595002058795</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="W44" t="n">
-        <v>3269.595002058795</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X44" t="n">
-        <v>2857.875003226543</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y44" t="n">
-        <v>2452.537733181433</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J45" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K45" t="n">
-        <v>71.89775734282044</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L45" t="n">
-        <v>71.89775734282044</v>
+        <v>1778.325624235569</v>
       </c>
       <c r="M45" t="n">
-        <v>961.6325044602233</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N45" t="n">
-        <v>1851.367251577626</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O45" t="n">
         <v>1880.58538792333</v>
@@ -7833,16 +7833,16 @@
         <v>2205.272171443122</v>
       </c>
       <c r="S46" t="n">
-        <v>2205.272171443122</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T46" t="n">
-        <v>2205.272171443122</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="U46" t="n">
-        <v>2205.272171443122</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="V46" t="n">
-        <v>2089.003917271063</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="W46" t="n">
         <v>1814.151513443576</v>
@@ -7987,19 +7987,19 @@
         <v>937.0340092178783</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>222.1460683914359</v>
       </c>
       <c r="N2" t="n">
         <v>936.0015896197015</v>
       </c>
       <c r="O2" t="n">
-        <v>615.0948261072494</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8063,10 +8063,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L3" t="n">
-        <v>784.1890535317962</v>
+        <v>346.7790401817604</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8078,7 +8078,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8218,13 +8218,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49310412327424</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>937.0340092178783</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>936.1532296846872</v>
+        <v>548.733908339808</v>
       </c>
       <c r="N5" t="n">
         <v>936.0015896197015</v>
@@ -8233,13 +8233,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L6" t="n">
-        <v>529.5908311320803</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>888.7930044375443</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8312,13 +8312,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,16 +8455,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>109.037682989509</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>937.0340092178783</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>936.1532296846872</v>
+        <v>548.733908339808</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O8" t="n">
         <v>891.0724241548241</v>
@@ -8473,7 +8473,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
@@ -8537,16 +8537,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M9" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>51.11232664953732</v>
+        <v>912.679259982217</v>
       </c>
       <c r="O9" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8555,7 +8555,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>937.0340092178783</v>
+        <v>314.2943680330167</v>
       </c>
       <c r="M11" t="n">
         <v>936.1532296846872</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>240.3435569763818</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M12" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>51.11232664953685</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>937.0340092178783</v>
+        <v>755.4826946928163</v>
       </c>
       <c r="M14" t="n">
-        <v>826.1379604051695</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N14" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8950,7 +8950,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>52.02835575029422</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>921.8187472975834</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N15" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9248,13 +9248,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>741.6322999927428</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>218.8019602116015</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>776.6671919541075</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9500,7 +9500,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9643,25 +9643,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>611.6066190166155</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>765.1769988726438</v>
+        <v>995.9774475394116</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9895,10 +9895,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,22 +10120,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>400.8313794692496</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>590.5593685239236</v>
+        <v>479.0344602783164</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10366,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10424,25 +10424,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10597,13 +10597,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10837,16 +10837,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>866.431015736377</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>844.3447626445209</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>819.14649402586</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
@@ -11080,10 +11080,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,25 +11135,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>920.064994998797</v>
+        <v>124.6357188072397</v>
       </c>
       <c r="O42" t="n">
-        <v>52.685158758287</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>937.0340092178783</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
         <v>936.1532296846872</v>
       </c>
       <c r="N44" t="n">
-        <v>936.0015896197015</v>
+        <v>39.01665978360126</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>46.3038651386963</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
@@ -11372,25 +11372,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>921.8187472975834</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N45" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>52.685158758287</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>248.3289064098478</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>32.20164732525143</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568371</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>111.089098535604</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>89.7052259757146</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>181.3704871423671</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>35.44779670964758</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -23709,10 +23709,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>12.80631912921226</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>18.44967133088807</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>125.8003826660207</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.0089626044154</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.7855238263079</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>28.37713291997449</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>35.44779670964743</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>79.2321554863222</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>63.30843903345712</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>83.832745680416</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>213.7810038658843</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>6.759898196019265</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>72.53542959285483</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -25927,7 +25927,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>317.1046250514749</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -26082,10 +26082,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>163.7887810877128</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>53.32812537571778</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>660385.7236865007</v>
+        <v>660385.7236865006</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>660385.7236865006</v>
+        <v>660385.7236865007</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>660385.7236865007</v>
+        <v>660385.7236865006</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660385.7236865007</v>
+        <v>660385.7236865006</v>
       </c>
     </row>
     <row r="15">
@@ -26322,25 +26322,25 @@
         <v>334904.5341064189</v>
       </c>
       <c r="E2" t="n">
-        <v>255659.2757639538</v>
+        <v>255659.275763954</v>
       </c>
       <c r="F2" t="n">
-        <v>255659.275763954</v>
+        <v>255659.2757639539</v>
       </c>
       <c r="G2" t="n">
-        <v>323167.4818040324</v>
+        <v>323167.4818040321</v>
       </c>
       <c r="H2" t="n">
         <v>323167.4818040322</v>
       </c>
       <c r="I2" t="n">
-        <v>323167.4818040321</v>
+        <v>323167.4818040323</v>
       </c>
       <c r="J2" t="n">
         <v>323167.4818040323</v>
       </c>
       <c r="K2" t="n">
-        <v>323167.4818040322</v>
+        <v>323167.481804032</v>
       </c>
       <c r="L2" t="n">
         <v>323167.4818040321</v>
@@ -26349,13 +26349,13 @@
         <v>323167.481804032</v>
       </c>
       <c r="N2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040321</v>
       </c>
       <c r="O2" t="n">
         <v>255659.275763954</v>
       </c>
       <c r="P2" t="n">
-        <v>255659.275763954</v>
+        <v>255659.2757639541</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79282.26202110136</v>
+        <v>79282.26202110137</v>
       </c>
       <c r="C4" t="n">
         <v>79282.2620211014</v>
@@ -26426,37 +26426,37 @@
         <v>79282.26202110139</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3761832340386</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="F4" t="n">
         <v>620.3761832340385</v>
       </c>
       <c r="G4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="H4" t="n">
         <v>800.0602599433672</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>800.0602599433672</v>
+      </c>
+      <c r="J4" t="n">
         <v>800.0602599433671</v>
-      </c>
-      <c r="I4" t="n">
-        <v>800.0602599433673</v>
-      </c>
-      <c r="J4" t="n">
-        <v>800.0602599433672</v>
       </c>
       <c r="K4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="M4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="O4" t="n">
-        <v>620.3761832340386</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="P4" t="n">
         <v>620.3761832340385</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-133830.0251702011</v>
+        <v>-133830.0251702012</v>
       </c>
       <c r="C6" t="n">
         <v>167352.3765047739</v>
@@ -26530,40 +26530,40 @@
         <v>167352.376504774</v>
       </c>
       <c r="E6" t="n">
-        <v>200396.6040001763</v>
+        <v>200052.0593986874</v>
       </c>
       <c r="F6" t="n">
-        <v>200396.6040001764</v>
+        <v>200052.0593986874</v>
       </c>
       <c r="G6" t="n">
-        <v>140448.0795740396</v>
+        <v>140397.048911855</v>
       </c>
       <c r="H6" t="n">
-        <v>244617.3593556592</v>
+        <v>244566.3286934748</v>
       </c>
       <c r="I6" t="n">
-        <v>244617.359355659</v>
+        <v>244566.3286934749</v>
       </c>
       <c r="J6" t="n">
-        <v>9472.149078097907</v>
+        <v>9421.118415913617</v>
       </c>
       <c r="K6" t="n">
-        <v>244617.3593556591</v>
+        <v>244566.3286934746</v>
       </c>
       <c r="L6" t="n">
-        <v>244617.359355659</v>
+        <v>244566.3286934747</v>
       </c>
       <c r="M6" t="n">
-        <v>244617.3593556589</v>
+        <v>244566.3286934746</v>
       </c>
       <c r="N6" t="n">
-        <v>244617.3593556592</v>
+        <v>244566.3286934747</v>
       </c>
       <c r="O6" t="n">
-        <v>200396.6040001764</v>
+        <v>200052.0593986875</v>
       </c>
       <c r="P6" t="n">
-        <v>200396.6040001764</v>
+        <v>200052.0593986876</v>
       </c>
     </row>
   </sheetData>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>179.1933612282744</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>69.55236417543517</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>110.0981677402027</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>107.5679663206414</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>271.0191457764881</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>177.9414066385954</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>153.4739695386593</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>19.17305830696984</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>177.9414066385951</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>67.6213312201082</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -34707,19 +34707,19 @@
         <v>898.7219667852554</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>184.7148054920041</v>
       </c>
       <c r="N2" t="n">
         <v>898.7219667852554</v>
       </c>
       <c r="O2" t="n">
-        <v>577.7038667512254</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34783,10 +34783,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L3" t="n">
-        <v>761.6739668175666</v>
+        <v>324.2639534675308</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>8.728503328464901</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>898.7219667852554</v>
+        <v>511.3026454403762</v>
       </c>
       <c r="N5" t="n">
         <v>898.7219667852554</v>
@@ -34953,13 +34953,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,19 +35011,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L6" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>865.6962239252163</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>73.27308219469965</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>511.3026454403762</v>
+      </c>
+      <c r="N8" t="n">
         <v>898.7219667852554</v>
-      </c>
-      <c r="M8" t="n">
-        <v>898.7219667852554</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>853.6814647988001</v>
@@ -35193,7 +35193,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35257,16 +35257,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M9" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>29.76929843599565</v>
+        <v>891.3362317686754</v>
       </c>
       <c r="O9" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>898.7219667852554</v>
+        <v>275.9823256003937</v>
       </c>
       <c r="M11" t="n">
         <v>898.7219667852554</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>204.2188823717838</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M12" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>29.76929843599519</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
+        <v>717.1706522601934</v>
+      </c>
+      <c r="M14" t="n">
         <v>898.7219667852554</v>
       </c>
-      <c r="M14" t="n">
-        <v>788.7066975057377</v>
-      </c>
       <c r="N14" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35670,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>29.51326903606467</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>898.7219667852554</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N15" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>181.2265984013702</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>754.1521052398779</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>574.2156596605913</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>727.745735973212</v>
+        <v>958.5461846399799</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36615,10 +36615,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,22 +36840,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>554.7947677291143</v>
+        <v>443.269859483507</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37086,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37317,13 +37317,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37557,16 +37557,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>829.040056380353</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>806.032720211898</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>781.7152311264282</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>898.7219667852554</v>
+        <v>103.292690593698</v>
       </c>
       <c r="O42" t="n">
-        <v>29.51326903606477</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>898.7219667852554</v>
       </c>
       <c r="N44" t="n">
-        <v>898.7219667852554</v>
+        <v>1.737036949155233</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>8.728503328465001</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>898.7219667852554</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N45" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>29.51326903606477</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
